--- a/Tables/корреляция_безработица_разводы.xlsx
+++ b/Tables/корреляция_безработица_разводы.xlsx
@@ -7077,7 +7077,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>разводы</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -13380,7 +13384,11 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>безработица</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
